--- a/report/fio.xlsx
+++ b/report/fio.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fio_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fio_sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -441,8 +441,10 @@
 </t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>281</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  33.3</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -460,7 +462,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  71.9</t>
+          <t>2022-12-14 23:41:59  8526.0</t>
         </is>
       </c>
     </row>
@@ -477,8 +479,10 @@
 </t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>250</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  35.1</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -496,7 +500,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  63.9</t>
+          <t>2022-12-14 23:41:59  8987.0</t>
         </is>
       </c>
     </row>
@@ -513,8 +517,10 @@
 </t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>285</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  31.4</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -532,7 +538,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  72.9</t>
+          <t>2022-12-14 23:41:59  8027.0</t>
         </is>
       </c>
     </row>
@@ -549,8 +555,10 @@
 </t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>263</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  26.7</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -568,7 +576,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  67.3</t>
+          <t>2022-12-14 23:41:59  6838.0</t>
         </is>
       </c>
     </row>
@@ -585,8 +593,10 @@
 </t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>80.2</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  8548.0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -604,7 +614,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  20.5</t>
+          <t>2022-12-14 23:41:59  2137.0</t>
         </is>
       </c>
     </row>
@@ -621,8 +631,10 @@
 </t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>169</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:41:59  19.6</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -640,7 +652,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  43.3</t>
+          <t>2022-12-14 23:41:59  5008.0</t>
         </is>
       </c>
     </row>
@@ -664,8 +676,10 @@
 </t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>530</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  851.0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -683,7 +697,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  4242.0</t>
+          <t>2022-12-14 23:42:00  6805.0</t>
         </is>
       </c>
     </row>
@@ -700,8 +714,10 @@
 </t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>385</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  1148.0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -719,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  3081.0</t>
+          <t>2022-12-14 23:42:00  9180.0</t>
         </is>
       </c>
     </row>
@@ -736,8 +752,10 @@
 </t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>491</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  812.0</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -755,7 +773,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  3929.0</t>
+          <t>2022-12-14 23:42:00  6492.0</t>
         </is>
       </c>
     </row>
@@ -772,8 +790,10 @@
 </t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>436</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  4424.0</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -791,7 +811,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  3489.0</t>
+          <t>2022-12-14 23:42:00  34.0</t>
         </is>
       </c>
     </row>
@@ -808,8 +828,10 @@
 </t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>137</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  196.0</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -827,7 +849,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  1098.0</t>
+          <t>2022-12-14 23:42:00  1568.0</t>
         </is>
       </c>
     </row>
@@ -844,8 +866,10 @@
 </t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>281</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  410.0</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -863,7 +887,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  2246.0</t>
+          <t>2022-12-14 23:42:00  3282.0</t>
         </is>
       </c>
     </row>
@@ -887,8 +911,10 @@
 </t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>547</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  2335.0</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -906,7 +932,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  546.0</t>
+          <t>2022-12-14 23:42:00  2335.0</t>
         </is>
       </c>
     </row>
@@ -923,8 +949,10 @@
 </t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>541</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  2559.0</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -942,7 +970,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  541.0</t>
+          <t>2022-12-14 23:42:00  2558.0</t>
         </is>
       </c>
     </row>
@@ -959,8 +987,10 @@
 </t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>509</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  1210.0</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -978,7 +1008,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  508.0</t>
+          <t>2022-12-14 23:42:00  1210.0</t>
         </is>
       </c>
     </row>
@@ -995,8 +1025,10 @@
 </t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>497</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  783.0</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1014,7 +1046,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  496.0</t>
+          <t>2022-12-14 23:42:00  783.0</t>
         </is>
       </c>
     </row>
@@ -1031,8 +1063,10 @@
 </t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>122</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  409.0</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1050,7 +1084,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  121.0</t>
+          <t>2022-12-14 23:42:00  409.0</t>
         </is>
       </c>
     </row>
@@ -1067,8 +1101,10 @@
 </t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>285</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022-12-14 23:42:00  981.0</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1086,11 +1122,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-11-24 11:45:55  284.0</t>
+          <t>2022-12-14 23:42:00  981.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>